--- a/DataFeeds/Historical_MineNetback.xlsx
+++ b/DataFeeds/Historical_MineNetback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409CED7D-6444-42E7-8493-CF2AB2AEB04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BC9F9-15D6-4698-9744-6D5D07E3DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{4484AAEA-60E1-4EAB-80F3-C08FBD8B207E}"/>
+    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{4484AAEA-60E1-4EAB-80F3-C08FBD8B207E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322E2B2-6E98-462B-8285-136F8D0868B5}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A181" sqref="A177:XFD181"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39448</v>
       </c>
@@ -423,7 +423,7 @@
         <v>279.19093995100718</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39479</v>
       </c>
@@ -431,7 +431,7 @@
         <v>331.05057513712853</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39508</v>
       </c>
@@ -439,7 +439,7 @@
         <v>387.76407372577467</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39539</v>
       </c>
@@ -447,7 +447,7 @@
         <v>487.0659550667757</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39569</v>
       </c>
@@ -455,7 +455,7 @@
         <v>658.16667788227767</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39600</v>
       </c>
@@ -463,7 +463,7 @@
         <v>715.33196195477194</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39630</v>
       </c>
@@ -471,7 +471,7 @@
         <v>760.84494628993673</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39661</v>
       </c>
@@ -479,7 +479,7 @@
         <v>793.66502534257313</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39692</v>
       </c>
@@ -487,7 +487,7 @@
         <v>812.88088125628849</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39722</v>
       </c>
@@ -495,7 +495,7 @@
         <v>854.6613538128031</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39753</v>
       </c>
@@ -503,7 +503,7 @@
         <v>858.22231631342743</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39783</v>
       </c>
@@ -511,7 +511,7 @@
         <v>851.78496940194293</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -519,7 +519,7 @@
         <v>713.58648713287459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39845</v>
       </c>
@@ -527,7 +527,7 @@
         <v>694.46875874598686</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39873</v>
       </c>
@@ -535,7 +535,7 @@
         <v>631.38960275339605</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>39904</v>
       </c>
@@ -543,7 +543,7 @@
         <v>666.57225955426452</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>39934</v>
       </c>
@@ -551,7 +551,7 @@
         <v>658.38496677942771</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>39965</v>
       </c>
@@ -559,7 +559,7 @@
         <v>654.88963257878891</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>39995</v>
       </c>
@@ -567,7 +567,7 @@
         <v>529.7968768000519</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40026</v>
       </c>
@@ -575,7 +575,7 @@
         <v>410.45019273291956</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40057</v>
       </c>
@@ -583,7 +583,7 @@
         <v>410.14577525759341</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40087</v>
       </c>
@@ -591,7 +591,7 @@
         <v>418.69697187222408</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>40118</v>
       </c>
@@ -599,7 +599,7 @@
         <v>410.20087599515716</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>40148</v>
       </c>
@@ -607,7 +607,7 @@
         <v>359.13500943004624</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40179</v>
       </c>
@@ -615,7 +615,7 @@
         <v>303.8049481098318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40210</v>
       </c>
@@ -623,7 +623,7 @@
         <v>306.34563482502034</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40238</v>
       </c>
@@ -631,7 +631,7 @@
         <v>291.82854062476758</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40269</v>
       </c>
@@ -639,7 +639,7 @@
         <v>292.41744692049906</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40299</v>
       </c>
@@ -647,7 +647,7 @@
         <v>291.28531371156697</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40330</v>
       </c>
@@ -655,7 +655,7 @@
         <v>300.28582489553355</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40360</v>
       </c>
@@ -663,7 +663,7 @@
         <v>302.76020894440745</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40391</v>
       </c>
@@ -671,7 +671,7 @@
         <v>299.15618111312455</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40422</v>
       </c>
@@ -679,7 +679,7 @@
         <v>292.41019352657372</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40452</v>
       </c>
@@ -687,7 +687,7 @@
         <v>300.79210370618796</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40483</v>
       </c>
@@ -695,7 +695,7 @@
         <v>309.31130245651082</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40513</v>
       </c>
@@ -703,7 +703,7 @@
         <v>317.75922167978723</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40544</v>
       </c>
@@ -711,7 +711,7 @@
         <v>346.10635311384613</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40575</v>
       </c>
@@ -719,7 +719,7 @@
         <v>348.29979587355643</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40603</v>
       </c>
@@ -727,7 +727,7 @@
         <v>346.98503316531753</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40634</v>
       </c>
@@ -735,7 +735,7 @@
         <v>382.70550690350274</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40664</v>
       </c>
@@ -743,7 +743,7 @@
         <v>386.88791795333248</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40695</v>
       </c>
@@ -751,7 +751,7 @@
         <v>418.13497047065005</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40725</v>
       </c>
@@ -759,7 +759,7 @@
         <v>413.76520223949893</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40756</v>
       </c>
@@ -767,7 +767,7 @@
         <v>423.1260373246327</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40787</v>
       </c>
@@ -775,7 +775,7 @@
         <v>421.97899061035088</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40817</v>
       </c>
@@ -783,7 +783,7 @@
         <v>433.04384777090308</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40848</v>
       </c>
@@ -791,7 +791,7 @@
         <v>443.22037931777459</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40878</v>
       </c>
@@ -799,7 +799,7 @@
         <v>445.63207541320395</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40909</v>
       </c>
@@ -807,7 +807,7 @@
         <v>447.10103285099302</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40940</v>
       </c>
@@ -815,7 +815,7 @@
         <v>439.20682868632304</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40969</v>
       </c>
@@ -823,7 +823,7 @@
         <v>432.50064980816632</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>41000</v>
       </c>
@@ -831,7 +831,7 @@
         <v>418.7932290456173</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>41030</v>
       </c>
@@ -839,7 +839,7 @@
         <v>421.07625261410817</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -847,7 +847,7 @@
         <v>427.93684550496744</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41091</v>
       </c>
@@ -855,7 +855,7 @@
         <v>427.59668689003638</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41122</v>
       </c>
@@ -863,7 +863,7 @@
         <v>435.69845001129659</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>41153</v>
       </c>
@@ -871,7 +871,7 @@
         <v>423.44887950484991</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41183</v>
       </c>
@@ -879,7 +879,7 @@
         <v>407.58504894995707</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41214</v>
       </c>
@@ -887,7 +887,7 @@
         <v>383.64711172934869</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41244</v>
       </c>
@@ -895,7 +895,7 @@
         <v>372.4546434662218</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41275</v>
       </c>
@@ -903,7 +903,7 @@
         <v>346.67655795258855</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41306</v>
       </c>
@@ -911,7 +911,7 @@
         <v>341.94725240971036</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41334</v>
       </c>
@@ -919,7 +919,7 @@
         <v>347.83993450700774</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41365</v>
       </c>
@@ -927,7 +927,7 @@
         <v>350.17126816287413</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41395</v>
       </c>
@@ -935,7 +935,7 @@
         <v>347.89146613633852</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41426</v>
       </c>
@@ -943,7 +943,7 @@
         <v>352.73353500088348</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -951,7 +951,7 @@
         <v>354.47039541850472</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41487</v>
       </c>
@@ -959,7 +959,7 @@
         <v>327.42273440672591</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41518</v>
       </c>
@@ -967,7 +967,7 @@
         <v>293.71889908918502</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41548</v>
       </c>
@@ -975,7 +975,7 @@
         <v>282.25617381106383</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41579</v>
       </c>
@@ -983,7 +983,7 @@
         <v>253.22036005614089</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41609</v>
       </c>
@@ -991,7 +991,7 @@
         <v>242.43768801625839</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41640</v>
       </c>
@@ -999,7 +999,7 @@
         <v>241.99316417502047</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41671</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>244.50863001008622</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41699</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>241.8004496216769</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41730</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>245.85485622563777</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41760</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>243.5000726859397</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41791</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>242.59959971284752</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41821</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>246.93406702196626</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41852</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>242.46667044821444</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41883</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>251.94745458104512</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41913</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>257.73268103661718</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41944</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>255.1281679323863</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41974</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>257.2615577440958</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42005</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>265.82985305188078</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42036</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>270.5195344689792</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42064</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>261.58538089455323</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42095</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>261.56271886436895</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42125</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>259.78832241234051</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42156</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>259.05492980378045</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42186</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>258.28663570322306</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42217</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>253.16231116292136</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42248</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>248.04980685590874</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42278</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>249.55569827997971</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42309</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>250.06578122611552</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42339</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>240.04594203546861</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42370</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>227.77620561550225</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42401</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>204.54349505811425</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42430</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>196.47092630506205</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42461</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>183.53352156828612</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42491</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>180.24792052040155</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42522</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>174.44002071291931</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42552</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>165.34342404349502</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42583</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>166.54571809040218</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42614</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>169.76810676091995</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42644</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>169.33311500735442</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42675</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>168.59467514368652</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42705</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>167.37308737230109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42736</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>166.61983848587369</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42767</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>170.46232861244781</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42795</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>172.21845831620831</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42826</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>172.67035101283113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42856</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>181.05046929698236</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42887</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>187.01756250881544</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42917</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>179.26154833345799</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42948</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>178.56661741407976</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42979</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>176.22653921907886</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43009</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>182.38550083221895</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43040</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>179.70388451360321</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43070</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>183.1356430544819</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43101</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>203.60008612284381</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43132</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>187.11973026238078</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43160</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>190.24764635808458</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43191</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>192.94142086267846</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43221</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>199.71311715608553</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43252</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>214.58668436200202</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43282</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>216.01096843951382</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43313</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>222.01026741274538</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43344</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>232.19461350468697</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43374</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>240.1859786889508</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43405</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>247.30856284802766</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43435</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>243.39148234169718</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43466</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>243.53411093579314</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43497</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>242.62576979985982</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43525</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>238.35321580667522</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>244.89491827637443</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43586</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>238.84445411743803</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43617</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>243.62095144518139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43647</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>240.3654457037216</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43678</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>237.87083230252705</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43709</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>224.979739402007</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43739</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>219.02625878362005</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43770</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>209.19607397023935</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43800</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>204.07414628545172</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43831</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>199.24100000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43862</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>193.27250000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43891</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>189.70375000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43922</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>178.24799999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>164.67999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>43983</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>164.99374999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44013</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>166.45099999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44044</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>165.34125</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44075</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>168.33375000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44105</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>168.34200000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44136</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>168.31000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44166</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>165.66499999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44197</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>165.22236176510165</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44228</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>177.24223157775765</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44256</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>185.5121303258145</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44287</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>202.34956004756242</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44317</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>199.72422889214249</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44348</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>256.67797240961124</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44378</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>394.21223215638724</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44409</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>423.93328849028393</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44440</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>459.74235253595111</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44470</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>496.90434309121804</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44501</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>512.70567144959534</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44531</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>533.45529055078327</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44562</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>566.52157201854857</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44593</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>561.82798133813787</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44621</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>710.35422700017602</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44652</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>849.04589807973321</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44682</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>798.52331515469689</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44713</v>
       </c>
@@ -1807,12 +1807,52 @@
         <v>825.70251870434981</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44743</v>
       </c>
       <c r="B176">
         <v>725.29203552934041</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B177">
+        <v>748.22138584332561</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B178">
+        <v>752.12325771793871</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B179">
+        <v>753.07239912746263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B180">
+        <v>752.53385046079586</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B181">
+        <v>751.62560635603404</v>
       </c>
     </row>
   </sheetData>

--- a/DataFeeds/Historical_MineNetback.xlsx
+++ b/DataFeeds/Historical_MineNetback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpMeesam\Dev\Canpotex\DataFeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meesam/Sandbox/Nutrien/Canpotex/DataFeeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BC9F9-15D6-4698-9744-6D5D07E3DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC07BF9-0E4E-C649-A261-6E6465E9F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="2460" windowWidth="24220" windowHeight="13120" xr2:uid="{4484AAEA-60E1-4EAB-80F3-C08FBD8B207E}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="18380" xr2:uid="{4484AAEA-60E1-4EAB-80F3-C08FBD8B207E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322E2B2-6E98-462B-8285-136F8D0868B5}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158:B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>39448</v>
       </c>
@@ -423,7 +423,7 @@
         <v>279.19093995100718</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>39479</v>
       </c>
@@ -431,7 +431,7 @@
         <v>331.05057513712853</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>39508</v>
       </c>
@@ -439,7 +439,7 @@
         <v>387.76407372577467</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>39539</v>
       </c>
@@ -447,7 +447,7 @@
         <v>487.0659550667757</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>39569</v>
       </c>
@@ -455,7 +455,7 @@
         <v>658.16667788227767</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>39600</v>
       </c>
@@ -463,7 +463,7 @@
         <v>715.33196195477194</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>39630</v>
       </c>
@@ -471,7 +471,7 @@
         <v>760.84494628993673</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39661</v>
       </c>
@@ -479,7 +479,7 @@
         <v>793.66502534257313</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>39692</v>
       </c>
@@ -487,7 +487,7 @@
         <v>812.88088125628849</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39722</v>
       </c>
@@ -495,7 +495,7 @@
         <v>854.6613538128031</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>39753</v>
       </c>
@@ -503,7 +503,7 @@
         <v>858.22231631342743</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39783</v>
       </c>
@@ -511,7 +511,7 @@
         <v>851.78496940194293</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -519,7 +519,7 @@
         <v>713.58648713287459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39845</v>
       </c>
@@ -527,7 +527,7 @@
         <v>694.46875874598686</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39873</v>
       </c>
@@ -535,7 +535,7 @@
         <v>631.38960275339605</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39904</v>
       </c>
@@ -543,7 +543,7 @@
         <v>666.57225955426452</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39934</v>
       </c>
@@ -551,7 +551,7 @@
         <v>658.38496677942771</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39965</v>
       </c>
@@ -559,7 +559,7 @@
         <v>654.88963257878891</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>39995</v>
       </c>
@@ -567,7 +567,7 @@
         <v>529.7968768000519</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40026</v>
       </c>
@@ -575,7 +575,7 @@
         <v>410.45019273291956</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40057</v>
       </c>
@@ -583,7 +583,7 @@
         <v>410.14577525759341</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40087</v>
       </c>
@@ -591,7 +591,7 @@
         <v>418.69697187222408</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40118</v>
       </c>
@@ -599,7 +599,7 @@
         <v>410.20087599515716</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40148</v>
       </c>
@@ -607,7 +607,7 @@
         <v>359.13500943004624</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40179</v>
       </c>
@@ -615,7 +615,7 @@
         <v>303.8049481098318</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40210</v>
       </c>
@@ -623,7 +623,7 @@
         <v>306.34563482502034</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40238</v>
       </c>
@@ -631,7 +631,7 @@
         <v>291.82854062476758</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40269</v>
       </c>
@@ -639,7 +639,7 @@
         <v>292.41744692049906</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40299</v>
       </c>
@@ -647,7 +647,7 @@
         <v>291.28531371156697</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40330</v>
       </c>
@@ -655,7 +655,7 @@
         <v>300.28582489553355</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40360</v>
       </c>
@@ -663,7 +663,7 @@
         <v>302.76020894440745</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40391</v>
       </c>
@@ -671,7 +671,7 @@
         <v>299.15618111312455</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40422</v>
       </c>
@@ -679,7 +679,7 @@
         <v>292.41019352657372</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40452</v>
       </c>
@@ -687,7 +687,7 @@
         <v>300.79210370618796</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40483</v>
       </c>
@@ -695,7 +695,7 @@
         <v>309.31130245651082</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40513</v>
       </c>
@@ -703,7 +703,7 @@
         <v>317.75922167978723</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40544</v>
       </c>
@@ -711,7 +711,7 @@
         <v>346.10635311384613</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40575</v>
       </c>
@@ -719,7 +719,7 @@
         <v>348.29979587355643</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40603</v>
       </c>
@@ -727,7 +727,7 @@
         <v>346.98503316531753</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40634</v>
       </c>
@@ -735,7 +735,7 @@
         <v>382.70550690350274</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40664</v>
       </c>
@@ -743,7 +743,7 @@
         <v>386.88791795333248</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40695</v>
       </c>
@@ -751,7 +751,7 @@
         <v>418.13497047065005</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40725</v>
       </c>
@@ -759,7 +759,7 @@
         <v>413.76520223949893</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40756</v>
       </c>
@@ -767,7 +767,7 @@
         <v>423.1260373246327</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40787</v>
       </c>
@@ -775,7 +775,7 @@
         <v>421.97899061035088</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40817</v>
       </c>
@@ -783,7 +783,7 @@
         <v>433.04384777090308</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40848</v>
       </c>
@@ -791,7 +791,7 @@
         <v>443.22037931777459</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40878</v>
       </c>
@@ -799,7 +799,7 @@
         <v>445.63207541320395</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40909</v>
       </c>
@@ -807,7 +807,7 @@
         <v>447.10103285099302</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40940</v>
       </c>
@@ -815,7 +815,7 @@
         <v>439.20682868632304</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40969</v>
       </c>
@@ -823,7 +823,7 @@
         <v>432.50064980816632</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41000</v>
       </c>
@@ -831,7 +831,7 @@
         <v>418.7932290456173</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41030</v>
       </c>
@@ -839,7 +839,7 @@
         <v>421.07625261410817</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41061</v>
       </c>
@@ -847,7 +847,7 @@
         <v>427.93684550496744</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41091</v>
       </c>
@@ -855,7 +855,7 @@
         <v>427.59668689003638</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41122</v>
       </c>
@@ -863,7 +863,7 @@
         <v>435.69845001129659</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41153</v>
       </c>
@@ -871,7 +871,7 @@
         <v>423.44887950484991</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41183</v>
       </c>
@@ -879,7 +879,7 @@
         <v>407.58504894995707</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>41214</v>
       </c>
@@ -887,7 +887,7 @@
         <v>383.64711172934869</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41244</v>
       </c>
@@ -895,7 +895,7 @@
         <v>372.4546434662218</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>41275</v>
       </c>
@@ -903,7 +903,7 @@
         <v>346.67655795258855</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>41306</v>
       </c>
@@ -911,7 +911,7 @@
         <v>341.94725240971036</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41334</v>
       </c>
@@ -919,7 +919,7 @@
         <v>347.83993450700774</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41365</v>
       </c>
@@ -927,7 +927,7 @@
         <v>350.17126816287413</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41395</v>
       </c>
@@ -935,7 +935,7 @@
         <v>347.89146613633852</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41426</v>
       </c>
@@ -943,7 +943,7 @@
         <v>352.73353500088348</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -951,7 +951,7 @@
         <v>354.47039541850472</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41487</v>
       </c>
@@ -959,7 +959,7 @@
         <v>327.42273440672591</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41518</v>
       </c>
@@ -967,7 +967,7 @@
         <v>293.71889908918502</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41548</v>
       </c>
@@ -975,7 +975,7 @@
         <v>282.25617381106383</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41579</v>
       </c>
@@ -983,7 +983,7 @@
         <v>253.22036005614089</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41609</v>
       </c>
@@ -991,7 +991,7 @@
         <v>242.43768801625839</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41640</v>
       </c>
@@ -999,7 +999,7 @@
         <v>241.99316417502047</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41671</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>244.50863001008622</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41699</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>241.8004496216769</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41730</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>245.85485622563777</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41760</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>243.5000726859397</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41791</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>242.59959971284752</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41821</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>246.93406702196626</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41852</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>242.46667044821444</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41883</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>251.94745458104512</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41913</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>257.73268103661718</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41944</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>255.1281679323863</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>41974</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>257.2615577440958</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42005</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>265.82985305188078</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42036</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>270.5195344689792</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42064</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>261.58538089455323</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42095</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>261.56271886436895</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42125</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>259.78832241234051</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42156</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>259.05492980378045</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42186</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>258.28663570322306</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42217</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>253.16231116292136</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42248</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>248.04980685590874</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42278</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>249.55569827997971</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42309</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>250.06578122611552</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42339</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>240.04594203546861</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42370</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>227.77620561550225</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42401</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>204.54349505811425</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42430</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>196.47092630506205</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42461</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>183.53352156828612</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42491</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>180.24792052040155</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42522</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>174.44002071291931</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42552</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>165.34342404349502</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42583</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>166.54571809040218</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42614</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>169.76810676091995</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42644</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>169.33311500735442</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42675</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>168.59467514368652</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42705</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>167.37308737230109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42736</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>166.61983848587369</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42767</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>170.46232861244781</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42795</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>172.21845831620831</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42826</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>172.67035101283113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42856</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>181.05046929698236</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42887</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>187.01756250881544</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42917</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>179.26154833345799</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42948</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>178.56661741407976</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42979</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>176.22653921907886</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43009</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>182.38550083221895</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43040</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>179.70388451360321</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43070</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>183.1356430544819</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43101</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>203.60008612284381</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43132</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>187.11973026238078</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43160</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>190.24764635808458</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43191</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>192.94142086267846</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43221</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>199.71311715608553</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43252</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>214.58668436200202</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43282</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>216.01096843951382</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43313</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>222.01026741274538</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43344</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>232.19461350468697</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43374</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>240.1859786889508</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43405</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>247.30856284802766</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43435</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>243.39148234169718</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43466</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>243.53411093579314</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43497</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>242.62576979985982</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43525</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>238.35321580667522</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43556</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>244.89491827637443</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43586</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>238.84445411743803</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43617</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>243.62095144518139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43647</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>240.3654457037216</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43678</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>237.87083230252705</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43709</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>224.979739402007</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43739</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>219.02625878362005</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43770</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>209.19607397023935</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43800</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>204.07414628545172</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43831</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>199.24100000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43862</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>193.27250000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43891</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>189.70375000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43922</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>178.24799999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>164.67999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43983</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>164.99374999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44013</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>166.45099999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44044</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>165.34125</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44075</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>168.33375000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44105</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>168.34200000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44136</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>168.31000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44166</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>165.66499999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44197</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>165.22236176510165</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44228</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>177.24223157775765</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44256</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>185.5121303258145</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44287</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>202.34956004756242</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44317</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>199.72422889214249</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44348</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>256.67797240961124</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44378</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>394.21223215638724</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44409</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>423.93328849028393</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44440</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>459.74235253595111</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44470</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>496.90434309121804</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44501</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>512.70567144959534</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44531</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>533.45529055078327</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44562</v>
       </c>
@@ -1767,15 +1767,15 @@
         <v>566.52157201854857</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44593</v>
       </c>
       <c r="B171">
-        <v>561.82798133813787</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+        <v>561.92669584312637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44621</v>
       </c>
@@ -1783,15 +1783,15 @@
         <v>710.35422700017602</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44652</v>
       </c>
       <c r="B173">
-        <v>849.04589807973321</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+        <v>848.92898689293725</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44682</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>798.52331515469689</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44713</v>
       </c>
@@ -1807,52 +1807,148 @@
         <v>825.70251870434981</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44743</v>
       </c>
       <c r="B176">
-        <v>725.29203552934041</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+        <v>728.23648918640038</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44774</v>
       </c>
       <c r="B177">
-        <v>748.22138584332561</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+        <v>707.53396319493686</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44805</v>
       </c>
       <c r="B178">
-        <v>752.12325771793871</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+        <v>641.48306145840672</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44835</v>
       </c>
       <c r="B179">
-        <v>753.07239912746263</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+        <v>563.3071678513752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44866</v>
       </c>
       <c r="B180">
-        <v>752.53385046079586</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+        <v>537.46710932784106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44896</v>
       </c>
       <c r="B181">
-        <v>751.62560635603404</v>
+        <v>464.20843872713505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B182">
+        <v>397.23604124929227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B183">
+        <v>397.34038136656</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B184">
+        <v>397.84397137970029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B185">
+        <v>398.16037878233846</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B186">
+        <v>399.68264381252743</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B187">
+        <v>399.25312666369229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B188">
+        <v>397.33526810467691</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B189">
+        <v>397.00785842393844</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B190">
+        <v>396.70599348008614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B191">
+        <v>397.67744701382151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B192">
+        <v>397.12623831080612</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B193">
+        <v>396.19664348308919</v>
       </c>
     </row>
   </sheetData>
